--- a/Project Flow Documents/Project Documents/BOM.xlsx
+++ b/Project Flow Documents/Project Documents/BOM.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colten\Dropbox\_SCHOOL\ECE_412_Capstone1\sense_platform\Project Flow Documents\Project Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -286,7 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,9 +302,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -332,6 +324,13 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -394,7 +393,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,7 +428,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -641,7 +640,7 @@
   <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -832,90 +831,90 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="19">
         <v>5</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <v>5.95</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <v>29.72</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="19">
         <v>5</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <v>2.96</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <f t="shared" ref="J9:J10" si="0">G9*I9</f>
         <v>14.8</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="19">
         <v>5</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="15">
         <v>9.9499999999999993</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="15">
         <f t="shared" si="0"/>
         <v>49.75</v>
       </c>
@@ -987,15 +986,15 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6">
         <f>SUM(J3:J16)</f>
@@ -1031,39 +1030,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="42.140625" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="3" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>42057</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Project Flow Documents/Project Documents/BOM.xlsx
+++ b/Project Flow Documents/Project Documents/BOM.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colten\Dropbox\_SCHOOL\ECE_412_Capstone1\sense_platform\Project Flow Documents\Project Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8265"/>
   </bookViews>
@@ -281,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,45 +297,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -393,7 +400,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,7 +435,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -640,7 +647,7 @@
   <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -687,316 +694,316 @@
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="12">
         <v>5</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>9.01</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f>G3*I3</f>
         <v>45.05</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="12">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>3.07</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <f>G4*I4</f>
         <v>15.35</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="12">
         <v>5</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>1.78</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <f>G5*I5</f>
         <v>8.9</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="12">
         <v>5</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>1.27</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f>G6*I6</f>
         <v>6.35</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="12">
         <v>5</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="7">
+      <c r="H7" s="12"/>
+      <c r="I7" s="6">
         <v>15</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="14">
         <v>5</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="16">
         <v>5.95</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="16">
         <v>29.72</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="14">
         <v>5</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="16">
         <v>2.96</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="16">
         <f t="shared" ref="J9:J10" si="0">G9*I9</f>
         <v>14.8</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="14">
         <v>5</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="16">
         <v>9.9499999999999993</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="16">
         <f t="shared" si="0"/>
         <v>49.75</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5">
         <f>SUM(J3:J16)</f>
         <v>249.92</v>
       </c>
@@ -1030,39 +1037,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="42.140625" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="3" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>42057</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Project Flow Documents/Project Documents/BOM.xlsx
+++ b/Project Flow Documents/Project Documents/BOM.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colten\Dropbox\_SCHOOL\ECE_412_Capstone1\sense_platform\Project Flow Documents\Project Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8265"/>
   </bookViews>
@@ -17,12 +12,12 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>Part #</t>
   </si>
@@ -201,6 +196,18 @@
   </si>
   <si>
     <t>https://www.sparkfun.com/products/12756</t>
+  </si>
+  <si>
+    <t>MQ7</t>
+  </si>
+  <si>
+    <t>Carbon monoxide gas sensor</t>
+  </si>
+  <si>
+    <t>Carbon monoxide gas sensor detection alarm</t>
+  </si>
+  <si>
+    <t>http://www.aliexpress.com/item/MQ-7-module-Carbon-monoxide-gas-sensor-detection-alarm-MQ7-sensor-module-forarduino/1956300409.html</t>
   </si>
 </sst>
 </file>
@@ -324,20 +331,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -400,7 +407,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,7 +442,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -647,7 +654,7 @@
   <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -838,104 +845,122 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>5</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <v>5.95</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <v>29.72</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>5</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <v>2.96</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <f t="shared" ref="J9:J10" si="0">G9*I9</f>
         <v>14.8</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>5</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="15">
         <v>9.9499999999999993</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="15">
         <f t="shared" si="0"/>
         <v>49.75</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+    <row r="11" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="13">
+        <v>5</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1.67</v>
+      </c>
+      <c r="J11" s="15">
+        <v>29.72</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -993,19 +1018,19 @@
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5">
         <f>SUM(J3:J16)</f>
-        <v>249.92</v>
+        <v>279.64</v>
       </c>
     </row>
   </sheetData>
@@ -1021,9 +1046,10 @@
     <hyperlink ref="H8" r:id="rId6"/>
     <hyperlink ref="H10" r:id="rId7"/>
     <hyperlink ref="H9" r:id="rId8"/>
+    <hyperlink ref="H11" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/Project Flow Documents/Project Documents/BOM.xlsx
+++ b/Project Flow Documents/Project Documents/BOM.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colten\Dropbox\_SCHOOL\ECE_412_Capstone1\sense_platform\Project Flow Documents\Project Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8265"/>
   </bookViews>
@@ -12,12 +17,12 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>Part #</t>
   </si>
@@ -196,18 +201,6 @@
   </si>
   <si>
     <t>https://www.sparkfun.com/products/12756</t>
-  </si>
-  <si>
-    <t>MQ7</t>
-  </si>
-  <si>
-    <t>Carbon monoxide gas sensor</t>
-  </si>
-  <si>
-    <t>Carbon monoxide gas sensor detection alarm</t>
-  </si>
-  <si>
-    <t>http://www.aliexpress.com/item/MQ-7-module-Carbon-monoxide-gas-sensor-detection-alarm-MQ7-sensor-module-forarduino/1956300409.html</t>
   </si>
 </sst>
 </file>
@@ -331,6 +324,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -342,9 +338,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -407,7 +400,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,7 +435,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -654,7 +647,7 @@
   <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -845,122 +838,104 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="14">
         <v>5</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="16">
         <v>5.95</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="16">
         <v>29.72</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="14">
         <v>5</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="16">
         <v>2.96</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="16">
         <f t="shared" ref="J9:J10" si="0">G9*I9</f>
         <v>14.8</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="14">
         <v>5</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="16">
         <v>9.9499999999999993</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="16">
         <f t="shared" si="0"/>
         <v>49.75</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="13">
-        <v>5</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="15">
-        <v>1.67</v>
-      </c>
-      <c r="J11" s="15">
-        <v>29.72</v>
-      </c>
+    <row r="11" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
@@ -1018,19 +993,19 @@
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5">
         <f>SUM(J3:J16)</f>
-        <v>279.64</v>
+        <v>249.92</v>
       </c>
     </row>
   </sheetData>
@@ -1046,10 +1021,9 @@
     <hyperlink ref="H8" r:id="rId6"/>
     <hyperlink ref="H10" r:id="rId7"/>
     <hyperlink ref="H9" r:id="rId8"/>
-    <hyperlink ref="H11" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/Project Flow Documents/Project Documents/BOM.xlsx
+++ b/Project Flow Documents/Project Documents/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
   <si>
     <t>Part #</t>
   </si>
@@ -93,21 +93,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>VOC sensor for air-quality monitor</t>
-  </si>
-  <si>
-    <t>http://www.aliexpress.com/item/5pcs-lot-FIGARO-air-quality-VOC-gas-sensor-TGS2602/1956331481.html</t>
-  </si>
-  <si>
-    <t>China(Mainland)</t>
-  </si>
-  <si>
-    <t>AliExpress</t>
-  </si>
-  <si>
-    <t>VOC Sensor</t>
-  </si>
-  <si>
     <t>Accelerometer</t>
   </si>
   <si>
@@ -291,16 +276,10 @@
     <t>TC33X-2-104E</t>
   </si>
   <si>
-    <t>TGS2602*</t>
-  </si>
-  <si>
     <t>P4SMA7.5CA-E3/5A**</t>
   </si>
   <si>
-    <t>** Cell H12 indicates the price for 100 units.</t>
-  </si>
-  <si>
-    <t>*A quotation has been requested from Figaro.</t>
+    <t>* Cell H12 indicates the price for 100 units.</t>
   </si>
 </sst>
 </file>
@@ -372,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -391,9 +370,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -701,9 +677,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -747,186 +723,187 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="F2" s="9">
         <v>5</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="H2" s="11">
-        <v>5.95</v>
+        <v>7.55</v>
       </c>
       <c r="I2" s="11">
-        <v>29.72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="9">
+        <f t="shared" ref="I2:I16" si="0">F2*H2</f>
+        <v>37.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="43.15" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="11">
-        <v>7.55</v>
-      </c>
-      <c r="I3" s="11">
-        <f t="shared" ref="I3:I17" si="0">F3*H3</f>
-        <v>37.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.15" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="H3" s="5">
+        <v>9.01</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="0"/>
+        <v>45.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H4" s="5">
-        <v>9.01</v>
+        <v>1.27</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" si="0"/>
-        <v>45.05</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
         <v>5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H5" s="5">
-        <v>1.27</v>
+        <v>1.08</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="0"/>
-        <v>6.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6" s="5">
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="0"/>
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H7" s="5">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="0"/>
-        <v>4.8499999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>42</v>
       </c>
@@ -934,162 +911,162 @@
         <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="2">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="H8" s="5">
-        <v>0.91</v>
+        <v>1.46</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="0"/>
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2">
         <v>5</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H9" s="5">
-        <v>1.46</v>
+        <v>3.95</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="0"/>
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="F10" s="2">
         <v>5</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="5">
-        <v>3.95</v>
+        <v>0.89</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="0"/>
-        <v>19.75</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F11" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>55</v>
       </c>
       <c r="H11" s="5">
-        <v>0.89</v>
+        <v>0.219</v>
       </c>
       <c r="I11" s="5">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="I12" s="5">
         <f t="shared" si="0"/>
-        <v>4.45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="2">
-        <v>100</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0.219</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0.219</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F13" s="2">
         <v>5</v>
@@ -1098,28 +1075,28 @@
         <v>64</v>
       </c>
       <c r="H13" s="5">
-        <v>0.6</v>
+        <v>0.75275999999999998</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.7637999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F14" s="2">
         <v>5</v>
@@ -1128,11 +1105,11 @@
         <v>69</v>
       </c>
       <c r="H14" s="5">
-        <v>0.75275999999999998</v>
+        <v>1.33</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="0"/>
-        <v>3.7637999999999998</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
@@ -1140,181 +1117,143 @@
         <v>75</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>76</v>
       </c>
       <c r="F15" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H15" s="5">
-        <v>1.33</v>
+        <v>0.35</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="0"/>
-        <v>6.65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="2">
-        <v>15</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="H16" s="5">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="0"/>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>88</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="6">
+        <v>15</v>
+      </c>
+      <c r="I17" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="8">
+        <f>SUM(H2:H17)</f>
+        <v>45.611760000000004</v>
+      </c>
+      <c r="I18" s="5">
+        <f>SUM(I2:I17)</f>
+        <v>235.68279999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="2">
-        <v>5</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0.27</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="0"/>
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="2">
-        <v>5</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="6">
-        <v>15</v>
-      </c>
-      <c r="I18" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="8">
-        <f>SUM(H2:H18)</f>
-        <v>51.561760000000007</v>
-      </c>
-      <c r="I19" s="5">
-        <f>SUM(I2:I18)</f>
-        <v>265.40280000000001</v>
-      </c>
+      <c r="B20" s="14"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="14"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="15"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="1"/>
+      <c r="G22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
+  <mergeCells count="2">
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1"/>
-    <hyperlink ref="G5" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3" display="http://www.mouser.com/hiroseconnector/"/>
-    <hyperlink ref="G2" r:id="rId4"/>
-    <hyperlink ref="C8" r:id="rId5" display="http://digikey.com/Suppliers/us/Semtech.page?lang=en"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://www.mouser.com/hiroseconnector/"/>
+    <hyperlink ref="C7" r:id="rId4" display="http://digikey.com/Suppliers/us/Semtech.page?lang=en"/>
+    <hyperlink ref="G9" r:id="rId5"/>
     <hyperlink ref="G10" r:id="rId6"/>
-    <hyperlink ref="G11" r:id="rId7"/>
-    <hyperlink ref="G8" r:id="rId8"/>
-    <hyperlink ref="C12" r:id="rId9" display="http://www.mouser.com/vishaysemiconductors/"/>
-    <hyperlink ref="C13" r:id="rId10" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
-    <hyperlink ref="C14" r:id="rId11" display="http://digikey.com/Suppliers/us/Elna-America.page?lang=en"/>
-    <hyperlink ref="C15" r:id="rId12" display="http://digikey.com/Suppliers/us/C-and-K-Components.page?lang=en"/>
-    <hyperlink ref="C3" r:id="rId13" display="http://digikey.com/Suppliers/us/Analog-Devices.page?lang=en"/>
-    <hyperlink ref="G17" r:id="rId14"/>
-    <hyperlink ref="G16" r:id="rId15"/>
-    <hyperlink ref="G12" r:id="rId16"/>
+    <hyperlink ref="G7" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId8" display="http://www.mouser.com/vishaysemiconductors/"/>
+    <hyperlink ref="C12" r:id="rId9" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
+    <hyperlink ref="C13" r:id="rId10" display="http://digikey.com/Suppliers/us/Elna-America.page?lang=en"/>
+    <hyperlink ref="C14" r:id="rId11" display="http://digikey.com/Suppliers/us/C-and-K-Components.page?lang=en"/>
+    <hyperlink ref="C2" r:id="rId12" display="http://digikey.com/Suppliers/us/Analog-Devices.page?lang=en"/>
+    <hyperlink ref="G16" r:id="rId13"/>
+    <hyperlink ref="G15" r:id="rId14"/>
+    <hyperlink ref="G11" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/Project Flow Documents/Project Documents/BOM.xlsx
+++ b/Project Flow Documents/Project Documents/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
   <si>
     <t>Part #</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>Picture</t>
-  </si>
-  <si>
     <t>Unit Cost</t>
   </si>
   <si>
@@ -66,15 +63,6 @@
     <t xml:space="preserve">Texas Instrument </t>
   </si>
   <si>
-    <t>PCB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSH Park </t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>http://www.mouser.com/ProductDetail/Hirose-Connector/ZX62R-B-5P/?qs=XQjbzJWzFPUqfCc9Mb2Taw%3D%3D</t>
   </si>
   <si>
@@ -280,14 +268,16 @@
   </si>
   <si>
     <t>* Cell H12 indicates the price for 100 units.</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -351,7 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -360,7 +350,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -677,343 +666,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>36</v>
+    </row>
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="9">
-        <v>5</v>
+        <v>74</v>
+      </c>
+      <c r="F2" s="8">
+        <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="11">
+        <v>73</v>
+      </c>
+      <c r="H2" s="10">
         <v>7.55</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <f t="shared" ref="I2:I16" si="0">F2*H2</f>
-        <v>37.75</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="8">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="H3" s="5">
         <v>9.01</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" si="0"/>
-        <v>45.05</v>
+        <v>54.06</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="F4" s="8">
+        <v>6</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H4" s="5">
         <v>1.27</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" si="0"/>
-        <v>6.35</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5</v>
+        <v>27</v>
+      </c>
+      <c r="F5" s="8">
+        <v>6</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" s="5">
         <v>1.08</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="0"/>
-        <v>5.4</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5</v>
+        <v>29</v>
+      </c>
+      <c r="F6" s="8">
+        <v>6</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H6" s="5">
         <v>0.97</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="0"/>
-        <v>4.8499999999999996</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="8">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="H7" s="5">
         <v>0.91</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="0"/>
-        <v>4.55</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="2">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="F8" s="8">
+        <v>6</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H8" s="5">
         <v>1.46</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="0"/>
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="2">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="F9" s="8">
+        <v>6</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H9" s="5">
         <v>3.95</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="0"/>
-        <v>19.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
+        <v>23.700000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="F10" s="8">
+        <v>6</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H10" s="5">
         <v>0.89</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="0"/>
-        <v>4.45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F11" s="2">
         <v>100</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H11" s="5">
         <v>0.219</v>
@@ -1024,216 +1016,189 @@
     </row>
     <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F12" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H12" s="5">
         <v>0.6</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H13" s="5">
         <v>0.75275999999999998</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="0"/>
-        <v>3.7637999999999998</v>
+        <v>4.5165600000000001</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F14" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H14" s="5">
         <v>1.33</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="0"/>
-        <v>6.65</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>76</v>
+        <v>22</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="F15" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H15" s="5">
         <v>0.35</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>82</v>
+        <v>32</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="F16" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H16" s="5">
         <v>0.27</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="0"/>
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="2">
-        <v>5</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="6">
-        <v>15</v>
-      </c>
-      <c r="I17" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="8">
-        <f>SUM(H2:H17)</f>
-        <v>45.611760000000004</v>
-      </c>
-      <c r="I18" s="5">
-        <f>SUM(I2:I17)</f>
-        <v>235.68279999999999</v>
-      </c>
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="7">
+        <f>SUM(H2:H16)</f>
+        <v>30.61176</v>
+      </c>
+      <c r="I17" s="5">
+        <f>SUM(I2:I16)</f>
+        <v>186.77555999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="13"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="14"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G22" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>
@@ -1241,16 +1206,16 @@
     <hyperlink ref="C4" r:id="rId3" display="http://www.mouser.com/hiroseconnector/"/>
     <hyperlink ref="C7" r:id="rId4" display="http://digikey.com/Suppliers/us/Semtech.page?lang=en"/>
     <hyperlink ref="G9" r:id="rId5"/>
-    <hyperlink ref="G10" r:id="rId6"/>
-    <hyperlink ref="G7" r:id="rId7"/>
-    <hyperlink ref="C11" r:id="rId8" display="http://www.mouser.com/vishaysemiconductors/"/>
-    <hyperlink ref="C12" r:id="rId9" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
-    <hyperlink ref="C13" r:id="rId10" display="http://digikey.com/Suppliers/us/Elna-America.page?lang=en"/>
-    <hyperlink ref="C14" r:id="rId11" display="http://digikey.com/Suppliers/us/C-and-K-Components.page?lang=en"/>
-    <hyperlink ref="C2" r:id="rId12" display="http://digikey.com/Suppliers/us/Analog-Devices.page?lang=en"/>
-    <hyperlink ref="G16" r:id="rId13"/>
-    <hyperlink ref="G15" r:id="rId14"/>
-    <hyperlink ref="G11" r:id="rId15"/>
+    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7" display="http://www.mouser.com/vishaysemiconductors/"/>
+    <hyperlink ref="C12" r:id="rId8" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
+    <hyperlink ref="C13" r:id="rId9" display="http://digikey.com/Suppliers/us/Elna-America.page?lang=en"/>
+    <hyperlink ref="C14" r:id="rId10" display="http://digikey.com/Suppliers/us/C-and-K-Components.page?lang=en"/>
+    <hyperlink ref="C2" r:id="rId11" display="http://digikey.com/Suppliers/us/Analog-Devices.page?lang=en"/>
+    <hyperlink ref="G16" r:id="rId12"/>
+    <hyperlink ref="G15" r:id="rId13"/>
+    <hyperlink ref="G11" r:id="rId14"/>
+    <hyperlink ref="G2" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId16"/>
